--- a/OVINTIV_PIPESTONE_PPF_CLIENT_MODBUS_MAP_20250128.xlsx
+++ b/OVINTIV_PIPESTONE_PPF_CLIENT_MODBUS_MAP_20250128.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\Projects\OVINTIV_PIPESTONE_PPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90793AAF-FA6A-4516-89E9-6A5E43CC0A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFAA11A-6928-4CE5-8459-C292D37B8315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{35E19F05-4342-4443-BCB2-9B66DF48BB5F}"/>
   </bookViews>
   <sheets>
     <sheet name="PLC CLIENT MODBUS MAP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PLC CLIENT MODBUS MAP'!#REF!</definedName>
     <definedName name="_Sort" localSheetId="0" hidden="1">#REF!</definedName>
@@ -50,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="202">
   <si>
     <t>N/A</t>
   </si>
@@ -913,15 +910,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -930,15 +918,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -967,6 +946,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{6D3363D7-FDD7-4132-BF3D-919AB1E6D800}"/>
@@ -984,22 +981,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="PLC MODBUS MAP"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1324,8 +1305,8 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1348,69 +1329,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="26" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="20" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="15" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1431,7 +1412,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="12" t="s">
         <v>182</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -1458,7 +1439,7 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="3"/>
@@ -1466,7 +1447,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1493,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>176</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -1522,11 +1503,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>174</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1536,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>173</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -1581,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>169</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -1603,7 +1584,7 @@
         <v>112</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O7" s="4"/>
     </row>
@@ -1624,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="12" t="s">
         <v>165</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -1669,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="12" t="s">
         <v>161</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -1712,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="12" t="s">
         <v>157</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -1736,9 +1717,7 @@
       <c r="N10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="O10" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1757,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="12" t="s">
         <v>153</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -1786,11 +1765,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>151</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1800,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="12" t="s">
         <v>150</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -1829,11 +1808,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>148</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1843,7 +1822,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="12" t="s">
         <v>147</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1872,11 +1851,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>145</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -1886,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="12" t="s">
         <v>144</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -1915,23 +1894,23 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="17"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -1950,7 +1929,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="12" t="s">
         <v>139</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -1979,11 +1958,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1993,7 +1972,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="12" t="s">
         <v>134</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -2038,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="12" t="s">
         <v>128</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -2081,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="12" t="s">
         <v>124</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -2126,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="12" t="s">
         <v>118</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -2169,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="12" t="s">
         <v>113</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -2214,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="12" t="s">
         <v>106</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -2243,11 +2222,11 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>102</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2257,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="12" t="s">
         <v>101</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -2286,11 +2265,11 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="13" t="s">
         <v>97</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -2300,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="12" t="s">
         <v>96</v>
       </c>
       <c r="H24" s="5" t="s">
@@ -2329,11 +2308,11 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -2343,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="12" t="s">
         <v>92</v>
       </c>
       <c r="H25" s="5" t="s">
@@ -2372,23 +2351,23 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="11"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="28"/>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -2428,7 +2407,7 @@
       <c r="M27" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N27" s="14" t="s">
+      <c r="N27" s="11" t="s">
         <v>83</v>
       </c>
       <c r="O27" s="3" t="s">
@@ -2436,23 +2415,23 @@
       </c>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="11"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="28"/>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
@@ -2889,23 +2868,23 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="11"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="28"/>
     </row>
     <row r="40" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
